--- a/Code/Results/Cases/Case_0_109/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_109/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01778177153749994</v>
+        <v>0.006728519195419835</v>
       </c>
       <c r="D2">
-        <v>0.002066048824719502</v>
+        <v>0.0008797679039052042</v>
       </c>
       <c r="E2">
-        <v>1.520554533848625</v>
+        <v>0.4328853915826016</v>
       </c>
       <c r="F2">
-        <v>1.12281921399267</v>
+        <v>0.5140666435330417</v>
       </c>
       <c r="G2">
-        <v>1.127243184121482</v>
+        <v>0.4148371388641863</v>
       </c>
       <c r="H2">
-        <v>0.5556434040951217</v>
+        <v>0.415906419037583</v>
       </c>
       <c r="I2">
-        <v>0.8345574053082103</v>
+        <v>0.378528808120933</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696344</v>
       </c>
       <c r="O2">
-        <v>3.50812319065642</v>
+        <v>1.604195653508384</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01543111721634105</v>
+        <v>0.006076801449928837</v>
       </c>
       <c r="D3">
-        <v>0.001790480323055732</v>
+        <v>0.0008078252896748239</v>
       </c>
       <c r="E3">
-        <v>1.301752182797998</v>
+        <v>0.3773509119814804</v>
       </c>
       <c r="F3">
-        <v>0.9731882100836202</v>
+        <v>0.4771661770303979</v>
       </c>
       <c r="G3">
-        <v>0.9728900190130503</v>
+        <v>0.3751547748629775</v>
       </c>
       <c r="H3">
-        <v>0.4882445316825681</v>
+        <v>0.4013800754613328</v>
       </c>
       <c r="I3">
-        <v>0.7231121535922114</v>
+        <v>0.3510449145856995</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679454</v>
       </c>
       <c r="O3">
-        <v>3.039381204774088</v>
+        <v>1.489284539608235</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01399865067214634</v>
+        <v>0.005679248823941663</v>
       </c>
       <c r="D4">
-        <v>0.001624466758528342</v>
+        <v>0.0007639649975850205</v>
       </c>
       <c r="E4">
-        <v>1.17048046067832</v>
+        <v>0.3433622218953474</v>
       </c>
       <c r="F4">
-        <v>0.8828167260130471</v>
+        <v>0.4548086757983754</v>
       </c>
       <c r="G4">
-        <v>0.8796006898333104</v>
+        <v>0.3509929734862141</v>
       </c>
       <c r="H4">
-        <v>0.4477019360922441</v>
+        <v>0.3927130817854589</v>
       </c>
       <c r="I4">
-        <v>0.6558139703891683</v>
+        <v>0.3343901433251375</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375761</v>
       </c>
       <c r="O4">
-        <v>2.756463819234909</v>
+        <v>1.41967317052405</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01341728470815795</v>
+        <v>0.005517902010662823</v>
       </c>
       <c r="D5">
-        <v>0.001557460296158553</v>
+        <v>0.0007461718026693376</v>
       </c>
       <c r="E5">
-        <v>1.117638018682598</v>
+        <v>0.3295368069885711</v>
       </c>
       <c r="F5">
-        <v>0.8463197899780397</v>
+        <v>0.4457726492480276</v>
       </c>
       <c r="G5">
-        <v>0.8419068757070676</v>
+        <v>0.3411973456553596</v>
       </c>
       <c r="H5">
-        <v>0.4313686496661404</v>
+        <v>0.3892444681041098</v>
       </c>
       <c r="I5">
-        <v>0.6286374527339333</v>
+        <v>0.3276582463111168</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068607429</v>
       </c>
       <c r="O5">
-        <v>2.642246385297028</v>
+        <v>1.391541781391453</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0133208829515894</v>
+        <v>0.005491150427197056</v>
       </c>
       <c r="D6">
-        <v>0.001546368801830234</v>
+        <v>0.0007432221506444847</v>
       </c>
       <c r="E6">
-        <v>1.108899624624939</v>
+        <v>0.3272425646636634</v>
       </c>
       <c r="F6">
-        <v>0.8402781191753377</v>
+        <v>0.444276729850813</v>
       </c>
       <c r="G6">
-        <v>0.8356659036069658</v>
+        <v>0.3395738211244179</v>
       </c>
       <c r="H6">
-        <v>0.4286672390606014</v>
+        <v>0.3886723230525178</v>
       </c>
       <c r="I6">
-        <v>0.6241387928538629</v>
+        <v>0.3265437343539261</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.280343261403573</v>
       </c>
       <c r="O6">
-        <v>2.623341172488409</v>
+        <v>1.386884778666484</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01399080099720607</v>
+        <v>0.005677070169625154</v>
       </c>
       <c r="D7">
-        <v>0.001623560661322188</v>
+        <v>0.0007637247045266804</v>
       </c>
       <c r="E7">
-        <v>1.169765321163112</v>
+        <v>0.3431756683243492</v>
       </c>
       <c r="F7">
-        <v>0.8823232390326297</v>
+        <v>0.4546865104137652</v>
       </c>
       <c r="G7">
-        <v>0.8790910970487573</v>
+        <v>0.3508606625682376</v>
       </c>
       <c r="H7">
-        <v>0.4474809272417701</v>
+        <v>0.3926660469550143</v>
       </c>
       <c r="I7">
-        <v>0.6554464996687486</v>
+        <v>0.3342991321805826</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851395496</v>
       </c>
       <c r="O7">
-        <v>2.754919293553826</v>
+        <v>1.419292828240174</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01696879649180971</v>
+        <v>0.006503268574039822</v>
       </c>
       <c r="D8">
-        <v>0.001970269577862283</v>
+        <v>0.000854898065295373</v>
       </c>
       <c r="E8">
-        <v>1.444396724799105</v>
+        <v>0.4137129092960095</v>
       </c>
       <c r="F8">
-        <v>1.07088469425149</v>
+        <v>0.5012808901624766</v>
       </c>
       <c r="G8">
-        <v>1.07368225426508</v>
+        <v>0.4011120680817299</v>
       </c>
       <c r="H8">
-        <v>0.5322152312831747</v>
+        <v>0.4108452740910309</v>
       </c>
       <c r="I8">
-        <v>0.7958740205966137</v>
+        <v>0.3690063707470586</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592813</v>
+        <v>2.766433886209654</v>
       </c>
       <c r="O8">
-        <v>3.345387377658142</v>
+        <v>1.564377203308595</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02291189973195173</v>
+        <v>0.008144014222359885</v>
       </c>
       <c r="D9">
-        <v>0.002684016682886536</v>
+        <v>0.001036116788622365</v>
       </c>
       <c r="E9">
-        <v>2.013526671630117</v>
+        <v>0.5530185435665373</v>
       </c>
       <c r="F9">
-        <v>1.454947657693651</v>
+        <v>0.5950560171121282</v>
       </c>
       <c r="G9">
-        <v>1.469587020481782</v>
+        <v>0.50130174076412</v>
       </c>
       <c r="H9">
-        <v>0.7062066659198649</v>
+        <v>0.4485062746540223</v>
       </c>
       <c r="I9">
-        <v>1.082009550803704</v>
+        <v>0.4388371859021305</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550675</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
-        <v>4.549912689889879</v>
+        <v>1.856474353692079</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02736740572468932</v>
+        <v>0.009362015047550187</v>
       </c>
       <c r="D10">
-        <v>0.003243902163484691</v>
+        <v>0.001170690266821595</v>
       </c>
       <c r="E10">
-        <v>2.460262123049262</v>
+        <v>0.6561296499827449</v>
       </c>
       <c r="F10">
-        <v>1.749521062147124</v>
+        <v>0.6654628728308865</v>
       </c>
       <c r="G10">
-        <v>1.773134773548236</v>
+        <v>0.5759689139246689</v>
       </c>
       <c r="H10">
-        <v>0.8406142461514037</v>
+        <v>0.4774197779458405</v>
       </c>
       <c r="I10">
-        <v>1.301582701696219</v>
+        <v>0.4912553836842619</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
-        <v>5.475454319299558</v>
+        <v>2.075855294684573</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02942006856128643</v>
+        <v>0.0099188480959711</v>
       </c>
       <c r="D11">
-        <v>0.003510679240944725</v>
+        <v>0.001232215773633527</v>
       </c>
       <c r="E11">
-        <v>2.672379505472279</v>
+        <v>0.7032396335836353</v>
       </c>
       <c r="F11">
-        <v>1.887164884098212</v>
+        <v>0.6978308986636961</v>
       </c>
       <c r="G11">
-        <v>1.914991767162235</v>
+        <v>0.6101787504348977</v>
       </c>
       <c r="H11">
-        <v>0.9036498457869016</v>
+        <v>0.4908474577545405</v>
       </c>
       <c r="I11">
-        <v>1.404215854902532</v>
+        <v>0.5153513634726465</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731751</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
-        <v>5.908433154322211</v>
+        <v>2.17672900672693</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03020165119529139</v>
+        <v>0.01013010071346088</v>
       </c>
       <c r="D12">
-        <v>0.003613905002158191</v>
+        <v>0.001255557420780207</v>
       </c>
       <c r="E12">
-        <v>2.754250148078455</v>
+        <v>0.7211111176289648</v>
       </c>
       <c r="F12">
-        <v>1.939900348767651</v>
+        <v>0.7101373296406308</v>
       </c>
       <c r="G12">
-        <v>1.969348569513386</v>
+        <v>0.6231689435712156</v>
       </c>
       <c r="H12">
-        <v>0.9278361915947073</v>
+        <v>0.4959719445542135</v>
       </c>
       <c r="I12">
-        <v>1.443543647454632</v>
+        <v>0.5245124474169529</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735714251</v>
       </c>
       <c r="O12">
-        <v>6.074406724815162</v>
+        <v>2.215084316690763</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03003312322841367</v>
+        <v>0.01008458632070131</v>
       </c>
       <c r="D13">
-        <v>0.003591566984969319</v>
+        <v>0.001250528467799938</v>
       </c>
       <c r="E13">
-        <v>2.736544322234195</v>
+        <v>0.7172607109846041</v>
       </c>
       <c r="F13">
-        <v>1.928514027468921</v>
+        <v>0.7074847156648332</v>
       </c>
       <c r="G13">
-        <v>1.95761178619253</v>
+        <v>0.6203696757861508</v>
       </c>
       <c r="H13">
-        <v>0.9226124075787538</v>
+        <v>0.4948665249938529</v>
       </c>
       <c r="I13">
-        <v>1.435051946745062</v>
+        <v>0.5225378159277057</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.2615545799186</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
-        <v>6.038566643303852</v>
+        <v>2.206816818587583</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02948428053014851</v>
+        <v>0.009936220145348784</v>
       </c>
       <c r="D14">
-        <v>0.003519124501117687</v>
+        <v>0.001234135242549783</v>
       </c>
       <c r="E14">
-        <v>2.679082368883385</v>
+        <v>0.7047092759486304</v>
       </c>
       <c r="F14">
-        <v>1.891490630558309</v>
+        <v>0.6988423638079126</v>
       </c>
       <c r="G14">
-        <v>1.919450338005504</v>
+        <v>0.6112467426643491</v>
       </c>
       <c r="H14">
-        <v>0.9056330630502885</v>
+        <v>0.4912682552297838</v>
       </c>
       <c r="I14">
-        <v>1.407441681153756</v>
+        <v>0.516104318286736</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139522</v>
       </c>
       <c r="O14">
-        <v>5.922045703302331</v>
+        <v>2.179881371418162</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02914867420950173</v>
+        <v>0.009845392496060867</v>
       </c>
       <c r="D15">
-        <v>0.003475053846683451</v>
+        <v>0.001224099528419842</v>
       </c>
       <c r="E15">
-        <v>2.644095345001944</v>
+        <v>0.6970253985258239</v>
       </c>
       <c r="F15">
-        <v>1.868895369095583</v>
+        <v>0.6935551179438448</v>
       </c>
       <c r="G15">
-        <v>1.896161591430399</v>
+        <v>0.6056633481962592</v>
       </c>
       <c r="H15">
-        <v>0.8952752956977861</v>
+        <v>0.4890693893523803</v>
       </c>
       <c r="I15">
-        <v>1.390592029103885</v>
+        <v>0.5121683756062083</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193851</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
-        <v>5.850944980896486</v>
+        <v>2.163403085112861</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02723382664018459</v>
+        <v>0.009325679808412701</v>
       </c>
       <c r="D16">
-        <v>0.003226748345685593</v>
+        <v>0.001166675533127659</v>
       </c>
       <c r="E16">
-        <v>2.446600605799873</v>
+        <v>0.6530552318173335</v>
       </c>
       <c r="F16">
-        <v>1.740606348241414</v>
+        <v>0.6633544248010992</v>
       </c>
       <c r="G16">
-        <v>1.763947930302095</v>
+        <v>0.5737381753341708</v>
       </c>
       <c r="H16">
-        <v>0.8365364400012538</v>
+        <v>0.4765477940424603</v>
       </c>
       <c r="I16">
-        <v>1.29493627439156</v>
+        <v>0.4896857341570069</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560724</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
-        <v>5.447422960415452</v>
+        <v>2.069284775670155</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02606613441200523</v>
+        <v>0.009007556099874137</v>
       </c>
       <c r="D17">
-        <v>0.003077816601960492</v>
+        <v>0.001131525787316789</v>
       </c>
       <c r="E17">
-        <v>2.327899038769857</v>
+        <v>0.6261350971456068</v>
       </c>
       <c r="F17">
-        <v>1.662897712448412</v>
+        <v>0.6449146304703959</v>
       </c>
       <c r="G17">
-        <v>1.683869831981099</v>
+        <v>0.5542159257400101</v>
       </c>
       <c r="H17">
-        <v>0.8010164051750905</v>
+        <v>0.4689367221727991</v>
       </c>
       <c r="I17">
-        <v>1.237003955286767</v>
+        <v>0.4759578584805979</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
-        <v>5.203133781995177</v>
+        <v>2.011823208150304</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0253969030168264</v>
+        <v>0.008824839662771922</v>
       </c>
       <c r="D18">
-        <v>0.002993259114697722</v>
+        <v>0.00111133755942916</v>
       </c>
       <c r="E18">
-        <v>2.260443945731666</v>
+        <v>0.6106704135292631</v>
       </c>
       <c r="F18">
-        <v>1.618538504716398</v>
+        <v>0.6343404807310549</v>
       </c>
       <c r="G18">
-        <v>1.638159585949126</v>
+        <v>0.5430101100605214</v>
       </c>
       <c r="H18">
-        <v>0.7807614523588029</v>
+        <v>0.4645848864141726</v>
       </c>
       <c r="I18">
-        <v>1.20393697343151</v>
+        <v>0.4680855176505787</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033284</v>
+        <v>3.857331695637754</v>
       </c>
       <c r="O18">
-        <v>5.063729642249427</v>
+        <v>1.978874020669195</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02517070748264416</v>
+        <v>0.008763019796973026</v>
       </c>
       <c r="D19">
-        <v>0.002964806422072641</v>
+        <v>0.001104507180107461</v>
       </c>
       <c r="E19">
-        <v>2.237738011085611</v>
+        <v>0.6054375336137952</v>
       </c>
       <c r="F19">
-        <v>1.603574537465576</v>
+        <v>0.6307657236869773</v>
       </c>
       <c r="G19">
-        <v>1.622740011245838</v>
+        <v>0.5392199201959897</v>
       </c>
       <c r="H19">
-        <v>0.7739323208816415</v>
+        <v>0.4631158635006614</v>
       </c>
       <c r="I19">
-        <v>1.192782788624356</v>
+        <v>0.4654241140248985</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.4671646587006</v>
+        <v>3.828614786364199</v>
       </c>
       <c r="O19">
-        <v>5.016711084466579</v>
+        <v>1.967735314281583</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02619018548547558</v>
+        <v>0.00904139404621418</v>
       </c>
       <c r="D20">
-        <v>0.003093553309740926</v>
+        <v>0.00113526454613222</v>
       </c>
       <c r="E20">
-        <v>2.340448471648898</v>
+        <v>0.6289987995033783</v>
       </c>
       <c r="F20">
-        <v>1.671134467194477</v>
+        <v>0.6468742693821241</v>
       </c>
       <c r="G20">
-        <v>1.692357549543061</v>
+        <v>0.5562917311281979</v>
       </c>
       <c r="H20">
-        <v>0.8047791372813435</v>
+        <v>0.469744256791671</v>
       </c>
       <c r="I20">
-        <v>1.243144182464661</v>
+        <v>0.4774167718914555</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.957806003280837</v>
       </c>
       <c r="O20">
-        <v>5.229022442084386</v>
+        <v>2.017929604277697</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02964536787126093</v>
+        <v>0.00997978828434043</v>
       </c>
       <c r="D21">
-        <v>0.003540338603514215</v>
+        <v>0.001238949162312153</v>
       </c>
       <c r="E21">
-        <v>2.695916014689161</v>
+        <v>0.7083950486138519</v>
       </c>
       <c r="F21">
-        <v>1.90234790231402</v>
+        <v>0.7013794881263919</v>
       </c>
       <c r="G21">
-        <v>1.93064111750877</v>
+        <v>0.6139253957687458</v>
       </c>
       <c r="H21">
-        <v>0.9106113495918464</v>
+        <v>0.4923240747731938</v>
       </c>
       <c r="I21">
-        <v>1.415538341151418</v>
+        <v>0.5179929996918275</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>4.391158149571254</v>
       </c>
       <c r="O21">
-        <v>5.956213517639014</v>
+        <v>2.187788699467148</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03192880245656227</v>
+        <v>0.01059536607014877</v>
       </c>
       <c r="D22">
-        <v>0.003845474563542339</v>
+        <v>0.001306964960340551</v>
       </c>
       <c r="E22">
-        <v>2.937406584105133</v>
+        <v>0.7604725738272293</v>
       </c>
       <c r="F22">
-        <v>2.057080800614798</v>
+        <v>0.7372897688707667</v>
       </c>
       <c r="G22">
-        <v>2.090149930549046</v>
+        <v>0.6518005599496917</v>
       </c>
       <c r="H22">
-        <v>0.9816462168332407</v>
+        <v>0.5073128822142507</v>
       </c>
       <c r="I22">
-        <v>1.530943720304549</v>
+        <v>0.5447246176007496</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057945</v>
+        <v>4.673791817957863</v>
       </c>
       <c r="O22">
-        <v>6.443380222286351</v>
+        <v>2.299715244977165</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03070757551440551</v>
+        <v>0.01026661325837352</v>
       </c>
       <c r="D23">
-        <v>0.003681234005512124</v>
+        <v>0.001270640865634221</v>
       </c>
       <c r="E23">
-        <v>2.807578728038735</v>
+        <v>0.7326597997578119</v>
       </c>
       <c r="F23">
-        <v>1.974133002273689</v>
+        <v>0.7180972507516543</v>
       </c>
       <c r="G23">
-        <v>2.004636267257894</v>
+        <v>0.6315665940941244</v>
       </c>
       <c r="H23">
-        <v>0.943546633009845</v>
+        <v>0.499291815127151</v>
       </c>
       <c r="I23">
-        <v>1.469074647914795</v>
+        <v>0.5304378499824054</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
-        <v>6.182172477639256</v>
+        <v>2.239893706084501</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02613409552660784</v>
+        <v>0.009026095359494946</v>
       </c>
       <c r="D24">
-        <v>0.003086435459701775</v>
+        <v>0.001133574191996445</v>
       </c>
       <c r="E24">
-        <v>2.334772438112111</v>
+        <v>0.6277040823208466</v>
       </c>
       <c r="F24">
-        <v>1.667409651068695</v>
+        <v>0.6459882321518648</v>
       </c>
       <c r="G24">
-        <v>1.688519238771875</v>
+        <v>0.5553532041648168</v>
       </c>
       <c r="H24">
-        <v>0.8030774923255137</v>
+        <v>0.4693790960480442</v>
       </c>
       <c r="I24">
-        <v>1.240367446075382</v>
+        <v>0.4767571348788522</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529139</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
-        <v>5.217314958366273</v>
+        <v>2.015168634122119</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02129050080876027</v>
+        <v>0.007697946297000158</v>
       </c>
       <c r="D25">
-        <v>0.002485950204604848</v>
+        <v>0.0009868378834330116</v>
       </c>
       <c r="E25">
-        <v>1.8553443024107</v>
+        <v>0.5152106233909848</v>
       </c>
       <c r="F25">
-        <v>1.349161107250879</v>
+        <v>0.5694254048094365</v>
       </c>
       <c r="G25">
-        <v>1.360570116471564</v>
+        <v>0.4740159274223856</v>
       </c>
       <c r="H25">
-        <v>0.6581249516683556</v>
+        <v>0.4381008095212735</v>
       </c>
       <c r="I25">
-        <v>1.003180548395548</v>
+        <v>0.4197530610044709</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.00683856119241</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
-        <v>4.217890626775784</v>
+        <v>1.776626452146161</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_109/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_109/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.006728519195419835</v>
+        <v>0.01778177153734362</v>
       </c>
       <c r="D2">
-        <v>0.0008797679039052042</v>
+        <v>0.002066048824678646</v>
       </c>
       <c r="E2">
-        <v>0.4328853915826016</v>
+        <v>1.520554533848596</v>
       </c>
       <c r="F2">
-        <v>0.5140666435330417</v>
+        <v>1.122819213992685</v>
       </c>
       <c r="G2">
-        <v>0.4148371388641863</v>
+        <v>1.127243184121454</v>
       </c>
       <c r="H2">
-        <v>0.415906419037583</v>
+        <v>0.5556434040950933</v>
       </c>
       <c r="I2">
-        <v>0.378528808120933</v>
+        <v>0.8345574053082103</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696344</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
-        <v>1.604195653508384</v>
+        <v>3.50812319065642</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.006076801449928837</v>
+        <v>0.01543111721634105</v>
       </c>
       <c r="D3">
-        <v>0.0008078252896748239</v>
+        <v>0.001790480323165866</v>
       </c>
       <c r="E3">
-        <v>0.3773509119814804</v>
+        <v>1.301752182798012</v>
       </c>
       <c r="F3">
-        <v>0.4771661770303979</v>
+        <v>0.973188210083606</v>
       </c>
       <c r="G3">
-        <v>0.3751547748629775</v>
+        <v>0.9728900190130076</v>
       </c>
       <c r="H3">
-        <v>0.4013800754613328</v>
+        <v>0.4882445316825681</v>
       </c>
       <c r="I3">
-        <v>0.3510449145856995</v>
+        <v>0.7231121535922114</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679454</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
-        <v>1.489284539608235</v>
+        <v>3.039381204774202</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.005679248823941663</v>
+        <v>0.01399865067214989</v>
       </c>
       <c r="D4">
-        <v>0.0007639649975850205</v>
+        <v>0.001624466758467058</v>
       </c>
       <c r="E4">
-        <v>0.3433622218953474</v>
+        <v>1.170480460678377</v>
       </c>
       <c r="F4">
-        <v>0.4548086757983754</v>
+        <v>0.8828167260130471</v>
       </c>
       <c r="G4">
-        <v>0.3509929734862141</v>
+        <v>0.8796006898332251</v>
       </c>
       <c r="H4">
-        <v>0.3927130817854589</v>
+        <v>0.4477019360922441</v>
       </c>
       <c r="I4">
-        <v>0.3343901433251375</v>
+        <v>0.6558139703891754</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375761</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
-        <v>1.41967317052405</v>
+        <v>2.756463819234995</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.005517902010662823</v>
+        <v>0.01341728470804782</v>
       </c>
       <c r="D5">
-        <v>0.0007461718026693376</v>
+        <v>0.0015574602963353</v>
       </c>
       <c r="E5">
-        <v>0.3295368069885711</v>
+        <v>1.117638018682598</v>
       </c>
       <c r="F5">
-        <v>0.4457726492480276</v>
+        <v>0.8463197899780397</v>
       </c>
       <c r="G5">
-        <v>0.3411973456553596</v>
+        <v>0.8419068757070676</v>
       </c>
       <c r="H5">
-        <v>0.3892444681041098</v>
+        <v>0.4313686496661546</v>
       </c>
       <c r="I5">
-        <v>0.3276582463111168</v>
+        <v>0.6286374527339404</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068607429</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
-        <v>1.391541781391453</v>
+        <v>2.642246385297</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.005491150427197056</v>
+        <v>0.0133208829515894</v>
       </c>
       <c r="D6">
-        <v>0.0007432221506444847</v>
+        <v>0.001546368801719211</v>
       </c>
       <c r="E6">
-        <v>0.3272425646636634</v>
+        <v>1.108899624624939</v>
       </c>
       <c r="F6">
-        <v>0.444276729850813</v>
+        <v>0.8402781191753377</v>
       </c>
       <c r="G6">
-        <v>0.3395738211244179</v>
+        <v>0.8356659036069942</v>
       </c>
       <c r="H6">
-        <v>0.3886723230525178</v>
+        <v>0.4286672390606014</v>
       </c>
       <c r="I6">
-        <v>0.3265437343539261</v>
+        <v>0.6241387928538558</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.280343261403573</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
-        <v>1.386884778666484</v>
+        <v>2.623341172488352</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.005677070169625154</v>
+        <v>0.01399080099709238</v>
       </c>
       <c r="D7">
-        <v>0.0007637247045266804</v>
+        <v>0.001623560661097478</v>
       </c>
       <c r="E7">
-        <v>0.3431756683243492</v>
+        <v>1.169765321163112</v>
       </c>
       <c r="F7">
-        <v>0.4546865104137652</v>
+        <v>0.8823232390326439</v>
       </c>
       <c r="G7">
-        <v>0.3508606625682376</v>
+        <v>0.8790910970486721</v>
       </c>
       <c r="H7">
-        <v>0.3926660469550143</v>
+        <v>0.4474809272417843</v>
       </c>
       <c r="I7">
-        <v>0.3342991321805826</v>
+        <v>0.6554464996687557</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851395496</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
-        <v>1.419292828240174</v>
+        <v>2.754919293553883</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.006503268574039822</v>
+        <v>0.01696879649180971</v>
       </c>
       <c r="D8">
-        <v>0.000854898065295373</v>
+        <v>0.00197026957797064</v>
       </c>
       <c r="E8">
-        <v>0.4137129092960095</v>
+        <v>1.444396724799105</v>
       </c>
       <c r="F8">
-        <v>0.5012808901624766</v>
+        <v>1.07088469425149</v>
       </c>
       <c r="G8">
-        <v>0.4011120680817299</v>
+        <v>1.073682254265108</v>
       </c>
       <c r="H8">
-        <v>0.4108452740910309</v>
+        <v>0.5322152312832884</v>
       </c>
       <c r="I8">
-        <v>0.3690063707470586</v>
+        <v>0.7958740205966137</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209654</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
-        <v>1.564377203308595</v>
+        <v>3.345387377658142</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.008144014222359885</v>
+        <v>0.02291189973194463</v>
       </c>
       <c r="D9">
-        <v>0.001036116788622365</v>
+        <v>0.002684016682886536</v>
       </c>
       <c r="E9">
-        <v>0.5530185435665373</v>
+        <v>2.013526671630117</v>
       </c>
       <c r="F9">
-        <v>0.5950560171121282</v>
+        <v>1.454947657693637</v>
       </c>
       <c r="G9">
-        <v>0.50130174076412</v>
+        <v>1.469587020481754</v>
       </c>
       <c r="H9">
-        <v>0.4485062746540223</v>
+        <v>0.7062066659198649</v>
       </c>
       <c r="I9">
-        <v>0.4388371859021305</v>
+        <v>1.082009550803704</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550619</v>
       </c>
       <c r="O9">
-        <v>1.856474353692079</v>
+        <v>4.549912689889879</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.009362015047550187</v>
+        <v>0.02736740572480301</v>
       </c>
       <c r="D10">
-        <v>0.001170690266821595</v>
+        <v>0.003243902163484691</v>
       </c>
       <c r="E10">
-        <v>0.6561296499827449</v>
+        <v>2.460262123049262</v>
       </c>
       <c r="F10">
-        <v>0.6654628728308865</v>
+        <v>1.74952106214711</v>
       </c>
       <c r="G10">
-        <v>0.5759689139246689</v>
+        <v>1.773134773548207</v>
       </c>
       <c r="H10">
-        <v>0.4774197779458405</v>
+        <v>0.8406142461512616</v>
       </c>
       <c r="I10">
-        <v>0.4912553836842619</v>
+        <v>1.301582701696205</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837513</v>
       </c>
       <c r="O10">
-        <v>2.075855294684573</v>
+        <v>5.475454319299558</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0099188480959711</v>
+        <v>0.02942006856121537</v>
       </c>
       <c r="D11">
-        <v>0.001232215773633527</v>
+        <v>0.003510679240944725</v>
       </c>
       <c r="E11">
-        <v>0.7032396335836353</v>
+        <v>2.67237950547225</v>
       </c>
       <c r="F11">
-        <v>0.6978308986636961</v>
+        <v>1.887164884098212</v>
       </c>
       <c r="G11">
-        <v>0.6101787504348977</v>
+        <v>1.914991767162235</v>
       </c>
       <c r="H11">
-        <v>0.4908474577545405</v>
+        <v>0.9036498457869016</v>
       </c>
       <c r="I11">
-        <v>0.5153513634726465</v>
+        <v>1.404215854902503</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731768</v>
       </c>
       <c r="O11">
-        <v>2.17672900672693</v>
+        <v>5.908433154322211</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01013010071346088</v>
+        <v>0.03020165119540508</v>
       </c>
       <c r="D12">
-        <v>0.001255557420780207</v>
+        <v>0.00361390500214398</v>
       </c>
       <c r="E12">
-        <v>0.7211111176289648</v>
+        <v>2.754250148078413</v>
       </c>
       <c r="F12">
-        <v>0.7101373296406308</v>
+        <v>1.939900348767651</v>
       </c>
       <c r="G12">
-        <v>0.6231689435712156</v>
+        <v>1.969348569513443</v>
       </c>
       <c r="H12">
-        <v>0.4959719445542135</v>
+        <v>0.927836191594821</v>
       </c>
       <c r="I12">
-        <v>0.5245124474169529</v>
+        <v>1.443543647454632</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735714251</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
-        <v>2.215084316690763</v>
+        <v>6.074406724815162</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01008458632070131</v>
+        <v>0.03003312322823604</v>
       </c>
       <c r="D13">
-        <v>0.001250528467799938</v>
+        <v>0.00359156698465668</v>
       </c>
       <c r="E13">
-        <v>0.7172607109846041</v>
+        <v>2.736544322234238</v>
       </c>
       <c r="F13">
-        <v>0.7074847156648332</v>
+        <v>1.928514027468921</v>
       </c>
       <c r="G13">
-        <v>0.6203696757861508</v>
+        <v>1.95761178619253</v>
       </c>
       <c r="H13">
-        <v>0.4948665249938529</v>
+        <v>0.9226124075787254</v>
       </c>
       <c r="I13">
-        <v>0.5225378159277057</v>
+        <v>1.435051946745077</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991871</v>
       </c>
       <c r="O13">
-        <v>2.206816818587583</v>
+        <v>6.038566643303852</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.009936220145348784</v>
+        <v>0.02948428053015562</v>
       </c>
       <c r="D14">
-        <v>0.001234135242549783</v>
+        <v>0.003519124501224269</v>
       </c>
       <c r="E14">
-        <v>0.7047092759486304</v>
+        <v>2.679082368883329</v>
       </c>
       <c r="F14">
-        <v>0.6988423638079126</v>
+        <v>1.89149063055828</v>
       </c>
       <c r="G14">
-        <v>0.6112467426643491</v>
+        <v>1.919450338005475</v>
       </c>
       <c r="H14">
-        <v>0.4912682552297838</v>
+        <v>0.90563306305026</v>
       </c>
       <c r="I14">
-        <v>0.516104318286736</v>
+        <v>1.407441681153742</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139522</v>
+        <v>12.06092695796548</v>
       </c>
       <c r="O14">
-        <v>2.179881371418162</v>
+        <v>5.922045703302388</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.009845392496060867</v>
+        <v>0.02914867420928857</v>
       </c>
       <c r="D15">
-        <v>0.001224099528419842</v>
+        <v>0.003475053846489828</v>
       </c>
       <c r="E15">
-        <v>0.6970253985258239</v>
+        <v>2.644095345001972</v>
       </c>
       <c r="F15">
-        <v>0.6935551179438448</v>
+        <v>1.868895369095583</v>
       </c>
       <c r="G15">
-        <v>0.6056633481962592</v>
+        <v>1.896161591430428</v>
       </c>
       <c r="H15">
-        <v>0.4890693893523803</v>
+        <v>0.8952752956977577</v>
       </c>
       <c r="I15">
-        <v>0.5121683756062083</v>
+        <v>1.390592029103871</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.93801081193834</v>
       </c>
       <c r="O15">
-        <v>2.163403085112861</v>
+        <v>5.850944980896486</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.009325679808412701</v>
+        <v>0.02723382664017748</v>
       </c>
       <c r="D16">
-        <v>0.001166675533127659</v>
+        <v>0.00322674834598935</v>
       </c>
       <c r="E16">
-        <v>0.6530552318173335</v>
+        <v>2.446600605799915</v>
       </c>
       <c r="F16">
-        <v>0.6633544248010992</v>
+        <v>1.740606348241414</v>
       </c>
       <c r="G16">
-        <v>0.5737381753341708</v>
+        <v>1.76394793030201</v>
       </c>
       <c r="H16">
-        <v>0.4765477940424603</v>
+        <v>0.8365364400011686</v>
       </c>
       <c r="I16">
-        <v>0.4896857341570069</v>
+        <v>1.29493627439156</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560713</v>
       </c>
       <c r="O16">
-        <v>2.069284775670155</v>
+        <v>5.447422960415508</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.009007556099874137</v>
+        <v>0.02606613441200523</v>
       </c>
       <c r="D17">
-        <v>0.001131525787316789</v>
+        <v>0.003077816602051087</v>
       </c>
       <c r="E17">
-        <v>0.6261350971456068</v>
+        <v>2.327899038769843</v>
       </c>
       <c r="F17">
-        <v>0.6449146304703959</v>
+        <v>1.662897712448412</v>
       </c>
       <c r="G17">
-        <v>0.5542159257400101</v>
+        <v>1.683869831981241</v>
       </c>
       <c r="H17">
-        <v>0.4689367221727991</v>
+        <v>0.8010164051752326</v>
       </c>
       <c r="I17">
-        <v>0.4759578584805979</v>
+        <v>1.237003955286767</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>10.80051555282938</v>
       </c>
       <c r="O17">
-        <v>2.011823208150304</v>
+        <v>5.203133781995234</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.008824839662771922</v>
+        <v>0.02539690301694009</v>
       </c>
       <c r="D18">
-        <v>0.00111133755942916</v>
+        <v>0.002993259114726143</v>
       </c>
       <c r="E18">
-        <v>0.6106704135292631</v>
+        <v>2.260443945731623</v>
       </c>
       <c r="F18">
-        <v>0.6343404807310549</v>
+        <v>1.618538504716398</v>
       </c>
       <c r="G18">
-        <v>0.5430101100605214</v>
+        <v>1.638159585949126</v>
       </c>
       <c r="H18">
-        <v>0.4645848864141726</v>
+        <v>0.7807614523588882</v>
       </c>
       <c r="I18">
-        <v>0.4680855176505787</v>
+        <v>1.20393697343151</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637754</v>
+        <v>10.5514994903329</v>
       </c>
       <c r="O18">
-        <v>1.978874020669195</v>
+        <v>5.06372964224937</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.008763019796973026</v>
+        <v>0.02517070748280048</v>
       </c>
       <c r="D19">
-        <v>0.001104507180107461</v>
+        <v>0.002964806422157906</v>
       </c>
       <c r="E19">
-        <v>0.6054375336137952</v>
+        <v>2.237738011085554</v>
       </c>
       <c r="F19">
-        <v>0.6307657236869773</v>
+        <v>1.603574537465576</v>
       </c>
       <c r="G19">
-        <v>0.5392199201959897</v>
+        <v>1.622740011245781</v>
       </c>
       <c r="H19">
-        <v>0.4631158635006614</v>
+        <v>0.7739323208816415</v>
       </c>
       <c r="I19">
-        <v>0.4654241140248985</v>
+        <v>1.192782788624342</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786364199</v>
+        <v>10.4671646587006</v>
       </c>
       <c r="O19">
-        <v>1.967735314281583</v>
+        <v>5.016711084466579</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.00904139404621418</v>
+        <v>0.02619018548558927</v>
       </c>
       <c r="D20">
-        <v>0.00113526454613222</v>
+        <v>0.003093553309721386</v>
       </c>
       <c r="E20">
-        <v>0.6289987995033783</v>
+        <v>2.340448471648813</v>
       </c>
       <c r="F20">
-        <v>0.6468742693821241</v>
+        <v>1.671134467194463</v>
       </c>
       <c r="G20">
-        <v>0.5562917311281979</v>
+        <v>1.692357549543061</v>
       </c>
       <c r="H20">
-        <v>0.469744256791671</v>
+        <v>0.8047791372814856</v>
       </c>
       <c r="I20">
-        <v>0.4774167718914555</v>
+        <v>1.243144182464647</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.957806003280837</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
-        <v>2.017929604277697</v>
+        <v>5.229022442084329</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.00997978828434043</v>
+        <v>0.02964536787129646</v>
       </c>
       <c r="D21">
-        <v>0.001238949162312153</v>
+        <v>0.003540338603517768</v>
       </c>
       <c r="E21">
-        <v>0.7083950486138519</v>
+        <v>2.695916014689132</v>
       </c>
       <c r="F21">
-        <v>0.7013794881263919</v>
+        <v>1.902347902314048</v>
       </c>
       <c r="G21">
-        <v>0.6139253957687458</v>
+        <v>1.930641117508742</v>
       </c>
       <c r="H21">
-        <v>0.4923240747731938</v>
+        <v>0.9106113495919601</v>
       </c>
       <c r="I21">
-        <v>0.5179929996918275</v>
+        <v>1.415538341151432</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571254</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
-        <v>2.187788699467148</v>
+        <v>5.956213517639071</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01059536607014877</v>
+        <v>0.03192880245668306</v>
       </c>
       <c r="D22">
-        <v>0.001306964960340551</v>
+        <v>0.003845474563540563</v>
       </c>
       <c r="E22">
-        <v>0.7604725738272293</v>
+        <v>2.937406584105105</v>
       </c>
       <c r="F22">
-        <v>0.7372897688707667</v>
+        <v>2.057080800614784</v>
       </c>
       <c r="G22">
-        <v>0.6518005599496917</v>
+        <v>2.090149930549018</v>
       </c>
       <c r="H22">
-        <v>0.5073128822142507</v>
+        <v>0.9816462168332407</v>
       </c>
       <c r="I22">
-        <v>0.5447246176007496</v>
+        <v>1.530943720304549</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.673791817957863</v>
+        <v>12.95085643057962</v>
       </c>
       <c r="O22">
-        <v>2.299715244977165</v>
+        <v>6.443380222286294</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01026661325837352</v>
+        <v>0.03070757551429892</v>
       </c>
       <c r="D23">
-        <v>0.001270640865634221</v>
+        <v>0.003681234005604495</v>
       </c>
       <c r="E23">
-        <v>0.7326597997578119</v>
+        <v>2.807578728038749</v>
       </c>
       <c r="F23">
-        <v>0.7180972507516543</v>
+        <v>1.974133002273689</v>
       </c>
       <c r="G23">
-        <v>0.6315665940941244</v>
+        <v>2.004636267257808</v>
       </c>
       <c r="H23">
-        <v>0.499291815127151</v>
+        <v>0.9435466330099587</v>
       </c>
       <c r="I23">
-        <v>0.5304378499824054</v>
+        <v>1.46907464791478</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
-        <v>2.239893706084501</v>
+        <v>6.182172477639256</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.009026095359494946</v>
+        <v>0.02613409552679968</v>
       </c>
       <c r="D24">
-        <v>0.001133574191996445</v>
+        <v>0.003086435459612957</v>
       </c>
       <c r="E24">
-        <v>0.6277040823208466</v>
+        <v>2.334772438112111</v>
       </c>
       <c r="F24">
-        <v>0.6459882321518648</v>
+        <v>1.667409651068709</v>
       </c>
       <c r="G24">
-        <v>0.5553532041648168</v>
+        <v>1.688519238771789</v>
       </c>
       <c r="H24">
-        <v>0.4693790960480442</v>
+        <v>0.8030774923254853</v>
       </c>
       <c r="I24">
-        <v>0.4767571348788522</v>
+        <v>1.240367446075368</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
-        <v>2.015168634122119</v>
+        <v>5.217314958366273</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.007697946297000158</v>
+        <v>0.02129050080881001</v>
       </c>
       <c r="D25">
-        <v>0.0009868378834330116</v>
+        <v>0.002485950204604848</v>
       </c>
       <c r="E25">
-        <v>0.5152106233909848</v>
+        <v>1.855344302410728</v>
       </c>
       <c r="F25">
-        <v>0.5694254048094365</v>
+        <v>1.349161107250879</v>
       </c>
       <c r="G25">
-        <v>0.4740159274223856</v>
+        <v>1.360570116471649</v>
       </c>
       <c r="H25">
-        <v>0.4381008095212735</v>
+        <v>0.6581249516683556</v>
       </c>
       <c r="I25">
-        <v>0.4197530610044709</v>
+        <v>1.003180548395548</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
-        <v>1.776626452146161</v>
+        <v>4.217890626775784</v>
       </c>
     </row>
   </sheetData>
